--- a/China_Acc_Results/Result/China_2022_EV_ownership.xlsx
+++ b/China_Acc_Results/Result/China_2022_EV_ownership.xlsx
@@ -1567,7 +1567,7 @@
   <dimension ref="A1:F342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
